--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Summe WO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes fixed, Tables fixed, Realtionen zu den Modellen hinzugefügt, Modelle gefixt, ERD erweitert,Automatische vergabe von user_id’s, badge-counter gefixt, note description box gefixt. Dashboard angepasst</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO3</t>
@@ -705,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7252560</xdr:colOff>
+      <xdr:colOff>7251840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -720,8 +723,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10081440" y="444600"/>
-          <a:ext cx="2731320" cy="1642680"/>
+          <a:off x="10081800" y="444600"/>
+          <a:ext cx="2730600" cy="1641960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="26" t="n">
-        <v>7.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="26" t="n">
-        <v>7.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1077,7 @@
         <v>0.3125</v>
       </c>
       <c r="C21" s="22" t="n">
-        <v>0.635416666666667</v>
+        <v>0.642361111111111</v>
       </c>
       <c r="D21" s="22" t="n">
         <v>0.513888888888889</v>
@@ -1087,7 +1090,7 @@
       </c>
       <c r="G21" s="26" t="n">
         <f aca="false">(C21-B21)*24-(E21-D21)*24</f>
-        <v>7.25000000000001</v>
+        <v>7.41666666666668</v>
       </c>
     </row>
     <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,19 +1104,29 @@
       <c r="F22" s="32"/>
       <c r="G22" s="31" t="n">
         <f aca="false">G17+G18+G19+G20+G21</f>
-        <v>38.0066666666667</v>
+        <v>23.3333333333334</v>
       </c>
     </row>
     <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="22" t="n">
+        <v>0.309027777777778</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>0.670138888888889</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="26" t="n">
         <f aca="false">(C23-B23)*24-(E23-D23)*24</f>
-        <v>0</v>
+        <v>8.16666666666667</v>
       </c>
     </row>
     <row r="24" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1179,7 @@
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1175,7 +1188,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
-        <v>0</v>
+        <v>8.16666666666667</v>
       </c>
     </row>
     <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1253,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1269,11 +1282,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>76.5066666666667</v>
+        <v>70.0000000000001</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1298,11 +1311,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>62.2533333333333</v>
+        <v>68.7599999999999</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">Notes fixed, Tables fixed, Realtionen zu den Modellen hinzugefügt, Modelle gefixt, ERD erweitert,Automatische vergabe von user_id’s, badge-counter gefixt, note description box gefixt. Dashboard angepasst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung zur Umsetzung, Fehler gefixt, Umsetzungsart und Weise geändert, Fotos geschossen, Filter geschrieben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Neue Tasks erledigt (Belege, Abwesenheiten, Beiträge), NotesResource gefixt, (crud Funktionen entfernt), Infolist angepasst, RelationsManager hinzugefügt, AMS-Berater RelationsManager form gefixt. </t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO3</t>
@@ -708,9 +714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7251840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>7251120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>199800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -724,7 +730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2730600" cy="1641960"/>
+          <a:ext cx="2729880" cy="1641240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,26 +1137,46 @@
     </row>
     <row r="24" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="22" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="C24" s="22" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D24" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E24" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G24" s="26" t="n">
         <f aca="false">(C24-B24)*24-(E24-D24)*24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="22" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="C25" s="22" t="n">
+        <v>0.659722222222222</v>
+      </c>
+      <c r="D25" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E25" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="G25" s="26" t="n">
         <f aca="false">(C25-B25)*24-(E25-D25)*24</f>
-        <v>0</v>
+        <v>7.83333333333333</v>
       </c>
     </row>
     <row r="26" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1205,7 @@
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1188,7 +1214,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
-        <v>8.16666666666667</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,7 +1279,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1282,11 +1308,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>70.0000000000001</v>
+        <v>85.8333333333334</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1311,11 +1337,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>68.7599999999999</v>
+        <v>52.9266666666666</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">3 Neue Tasks erledigt (Belege, Abwesenheiten, Beiträge), NotesResource gefixt, (crud Funktionen entfernt), Infolist angepasst, RelationsManager hinzugefügt, AMS-Berater RelationsManager form gefixt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zu jedem Bericht viele Filter hinzugefügt, Relationen aufgelöst → in Infoliste gegeben. UserId-Fixes bei den Notes, Forms verbessert, Icons hinuzugefügt, Routen gefixt.</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO3</t>
@@ -714,9 +717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7251120</xdr:colOff>
+      <xdr:colOff>7250400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -730,7 +733,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2729880" cy="1641240"/>
+          <a:ext cx="2729160" cy="1640520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1017,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="26" t="n">
-        <v>0</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="18" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="G18" s="26" t="n">
-        <v>0</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,7 +1113,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="31" t="n">
         <f aca="false">G17+G18+G19+G20+G21</f>
-        <v>23.3333333333334</v>
+        <v>38.1733333333334</v>
       </c>
     </row>
     <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,14 +1184,24 @@
     </row>
     <row r="26" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="27"/>
+      <c r="B26" s="22" t="n">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="C26" s="22" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D26" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E26" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="G26" s="26" t="n">
         <f aca="false">(C26-B26)*24-(E26-D26)*24</f>
-        <v>0</v>
+        <v>7.66666666666664</v>
       </c>
     </row>
     <row r="27" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1218,7 @@
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1214,7 +1227,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
-        <v>24</v>
+        <v>31.6666666666666</v>
       </c>
     </row>
     <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1292,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1308,11 +1321,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>85.8333333333334</v>
+        <v>108.34</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1337,11 +1350,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>52.9266666666666</v>
+        <v>30.4199999999999</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zu jedem Bericht viele Filter hinzugefügt, Relationen aufgelöst → in Infoliste gegeben. UserId-Fixes bei den Notes, Forms verbessert, Icons hinuzugefügt, Routen gefixt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formularbugs gefixt, System getestet, User-Anzeige implementiert, System zerstört → wieder gefixt… Fehler gesucht</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO3</t>
@@ -717,9 +720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7250400</xdr:colOff>
+      <xdr:colOff>7249680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>199080</xdr:rowOff>
+      <xdr:rowOff>198360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -733,7 +736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2729160" cy="1640520"/>
+          <a:ext cx="2728440" cy="1639800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,7 +759,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,10 +1086,10 @@
     <row r="21" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
       <c r="B21" s="22" t="n">
-        <v>0.3125</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="C21" s="22" t="n">
-        <v>0.642361111111111</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="D21" s="22" t="n">
         <v>0.513888888888889</v>
@@ -1099,7 +1102,7 @@
       </c>
       <c r="G21" s="26" t="n">
         <f aca="false">(C21-B21)*24-(E21-D21)*24</f>
-        <v>7.41666666666668</v>
+        <v>7.66666666666668</v>
       </c>
     </row>
     <row r="22" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,7 +1116,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="31" t="n">
         <f aca="false">G17+G18+G19+G20+G21</f>
-        <v>38.1733333333334</v>
+        <v>38.4233333333334</v>
       </c>
     </row>
     <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,24 +1204,34 @@
       </c>
       <c r="G26" s="26" t="n">
         <f aca="false">(C26-B26)*24-(E26-D26)*24</f>
-        <v>7.66666666666664</v>
+        <v>7.66666666666663</v>
       </c>
     </row>
     <row r="27" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="22" t="n">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="22" t="n">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="G27" s="26" t="n">
         <f aca="false">(C27-B27)*24-(E27-D27)*24</f>
-        <v>0</v>
+        <v>7.16666666666667</v>
       </c>
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1227,7 +1240,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
-        <v>31.6666666666666</v>
+        <v>38.8333333333333</v>
       </c>
     </row>
     <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,7 +1305,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1321,11 +1334,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>108.34</v>
+        <v>115.756666666667</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1350,11 +1363,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>30.4199999999999</v>
+        <v>23.0033333333333</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">Summe WO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Bug gefixt → Zuletzt verändert wird im Teilnehmer gespeichert, Jede Resource lässt sich nun als xlsx(excel-format) exportieren, alle resources gefixt, keine fehler mehr beim formular absenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifikationssystem implementiert, Global Search, Instagram-caption überlegt, Präsentation angefangen</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO4</t>
@@ -720,9 +726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7249680</xdr:colOff>
+      <xdr:colOff>7248960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>198360</xdr:rowOff>
+      <xdr:rowOff>197640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -736,7 +742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2728440" cy="1639800"/>
+          <a:ext cx="2727720" cy="1639080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,26 +1251,46 @@
     </row>
     <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="27"/>
+      <c r="B29" s="22" t="n">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="C29" s="22" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D29" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E29" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G29" s="26" t="n">
         <f aca="false">(C29-B29)*24-(E29-D29)*24</f>
-        <v>0</v>
+        <v>7.66666666666667</v>
       </c>
     </row>
     <row r="30" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="27"/>
+      <c r="B30" s="22" t="n">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="C30" s="22" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D30" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E30" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="G30" s="26" t="n">
         <f aca="false">(C30-B30)*24-(E30-D30)*24</f>
-        <v>0</v>
+        <v>7.66666666666667</v>
       </c>
     </row>
     <row r="31" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1331,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1314,7 +1340,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="31" t="n">
         <f aca="false">G29+G30+G31+G32+G33</f>
-        <v>0</v>
+        <v>15.3333333333333</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,11 +1360,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>115.756666666667</v>
+        <v>131.09</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1363,11 +1389,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>23.0033333333333</v>
+        <v>7.66999999999996</v>
       </c>
       <c r="H38" s="12"/>
     </row>

--- a/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
+++ b/#Stundenaufzeichnung_Vorlage_2023_erweiterte_Zeiten (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">Stundenaufzeichung</t>
   </si>
@@ -121,7 +121,13 @@
     <t xml:space="preserve">User Bug gefixt → Zuletzt verändert wird im Teilnehmer gespeichert, Jede Resource lässt sich nun als xlsx(excel-format) exportieren, alle resources gefixt, keine fehler mehr beim formular absenden</t>
   </si>
   <si>
-    <t xml:space="preserve">Notifikationssystem implementiert, Global Search, Instagram-caption überlegt, Präsentation angefangen</t>
+    <t xml:space="preserve">Notifikationssystem implementiert, Global Search, Instagram-caption überlegt, Projekt finalisiert, Präsentation angefangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlusspräsentation fertig gestellt, Projekt finalisiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlusspräsentation präsentiert</t>
   </si>
   <si>
     <t xml:space="preserve">Summe WO4</t>
@@ -726,9 +732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7248960</xdr:colOff>
+      <xdr:colOff>7248600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>197640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,7 +748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10081800" y="444600"/>
-          <a:ext cx="2727720" cy="1639080"/>
+          <a:ext cx="2727360" cy="1638720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,8 +770,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -896,7 +902,9 @@
       </c>
     </row>
     <row r="11" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21"/>
+      <c r="A11" s="21" t="n">
+        <v>45145</v>
+      </c>
       <c r="B11" s="22" t="n">
         <v>0.375</v>
       </c>
@@ -918,7 +926,9 @@
       </c>
     </row>
     <row r="12" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="n">
+        <v>45146</v>
+      </c>
       <c r="B12" s="22" t="n">
         <v>0.322916666666667</v>
       </c>
@@ -940,7 +950,9 @@
       </c>
     </row>
     <row r="13" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21"/>
+      <c r="A13" s="21" t="n">
+        <v>45147</v>
+      </c>
       <c r="B13" s="22" t="n">
         <v>0.322916666666667</v>
       </c>
@@ -962,7 +974,9 @@
       </c>
     </row>
     <row r="14" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
+      <c r="A14" s="21" t="n">
+        <v>45148</v>
+      </c>
       <c r="B14" s="22" t="n">
         <v>0.3125</v>
       </c>
@@ -984,7 +998,9 @@
       </c>
     </row>
     <row r="15" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
+      <c r="A15" s="21" t="n">
+        <v>45149</v>
+      </c>
       <c r="B15" s="22" t="n">
         <v>0.291666666666667</v>
       </c>
@@ -1046,7 +1062,9 @@
       </c>
     </row>
     <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
+      <c r="A19" s="21" t="n">
+        <v>45154</v>
+      </c>
       <c r="B19" s="22" t="n">
         <v>0.302083333333333</v>
       </c>
@@ -1068,7 +1086,9 @@
       </c>
     </row>
     <row r="20" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
+      <c r="A20" s="21" t="n">
+        <v>45155</v>
+      </c>
       <c r="B20" s="22" t="n">
         <v>0.305555555555556</v>
       </c>
@@ -1090,7 +1110,9 @@
       </c>
     </row>
     <row r="21" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
+      <c r="A21" s="21" t="n">
+        <v>45156</v>
+      </c>
       <c r="B21" s="22" t="n">
         <v>0.305555555555556</v>
       </c>
@@ -1126,7 +1148,9 @@
       </c>
     </row>
     <row r="23" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
+      <c r="A23" s="21" t="n">
+        <v>45159</v>
+      </c>
       <c r="B23" s="22" t="n">
         <v>0.309027777777778</v>
       </c>
@@ -1148,7 +1172,9 @@
       </c>
     </row>
     <row r="24" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
+      <c r="A24" s="21" t="n">
+        <v>45160</v>
+      </c>
       <c r="B24" s="22" t="n">
         <v>0.3125</v>
       </c>
@@ -1170,7 +1196,9 @@
       </c>
     </row>
     <row r="25" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
+      <c r="A25" s="21" t="n">
+        <v>45161</v>
+      </c>
       <c r="B25" s="22" t="n">
         <v>0.3125</v>
       </c>
@@ -1192,7 +1220,9 @@
       </c>
     </row>
     <row r="26" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
+      <c r="A26" s="21" t="n">
+        <v>45162</v>
+      </c>
       <c r="B26" s="22" t="n">
         <v>0.305555555555556</v>
       </c>
@@ -1214,12 +1244,14 @@
       </c>
     </row>
     <row r="27" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
+      <c r="A27" s="21" t="n">
+        <v>45163</v>
+      </c>
       <c r="B27" s="22" t="n">
         <v>0.305555555555556</v>
       </c>
       <c r="C27" s="22" t="n">
-        <v>0.625</v>
+        <v>0.635416666666667</v>
       </c>
       <c r="D27" s="22" t="n">
         <v>0.513888888888889</v>
@@ -1232,7 +1264,7 @@
       </c>
       <c r="G27" s="26" t="n">
         <f aca="false">(C27-B27)*24-(E27-D27)*24</f>
-        <v>7.16666666666667</v>
+        <v>7.41666666666666</v>
       </c>
     </row>
     <row r="28" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,11 +1278,13 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31" t="n">
         <f aca="false">G23+G24+G25+G26+G27</f>
-        <v>38.8333333333333</v>
+        <v>39.0833333333333</v>
       </c>
     </row>
     <row r="29" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
+      <c r="A29" s="21" t="n">
+        <v>45166</v>
+      </c>
       <c r="B29" s="22" t="n">
         <v>0.305555555555556</v>
       </c>
@@ -1272,7 +1306,9 @@
       </c>
     </row>
     <row r="30" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
+      <c r="A30" s="21" t="n">
+        <v>45167</v>
+      </c>
       <c r="B30" s="22" t="n">
         <v>0.305555555555556</v>
       </c>
@@ -1294,36 +1330,56 @@
       </c>
     </row>
     <row r="31" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="27"/>
+      <c r="A31" s="21" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B31" s="22" t="n">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="C31" s="22" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D31" s="22" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="E31" s="22" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>34</v>
+      </c>
       <c r="G31" s="26" t="n">
         <f aca="false">(C31-B31)*24-(E31-D31)*24</f>
-        <v>0</v>
+        <v>7.66666666666667</v>
       </c>
     </row>
     <row r="32" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
+      <c r="A32" s="21" t="n">
+        <v>45170</v>
+      </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="G32" s="26" t="n">
         <f aca="false">(C32-B32)*24-(E32-D32)*24</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
+      <c r="A33" s="21" t="n">
+        <v>45171</v>
+      </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="G33" s="26" t="n">
         <f aca="false">(C33-B33)*24-(E33-D33)*24</f>
         <v>0</v>
@@ -1331,7 +1387,7 @@
     </row>
     <row r="34" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
@@ -1340,7 +1396,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="31" t="n">
         <f aca="false">G29+G30+G31+G32+G33</f>
-        <v>15.3333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,11 +1416,11 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">G16+G22+G28+G34</f>
-        <v>131.09</v>
+        <v>139.006666666667</v>
       </c>
       <c r="H36" s="42"/>
     </row>
@@ -1389,11 +1445,11 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G37-G36</f>
-        <v>7.66999999999996</v>
+        <v>-0.246666666666698</v>
       </c>
       <c r="H38" s="12"/>
     </row>
